--- a/matri/an.xlsx
+++ b/matri/an.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C256E91-DA6D-4B70-9153-5A999A02AAC5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5C001D-F2B3-49AB-BDDD-7F554909C09D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +229,12 @@
         <fgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -445,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -454,6 +460,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,79 +562,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -923,21 +941,21 @@
   <dimension ref="A6:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="32"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -946,48 +964,48 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="G8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -996,36 +1014,36 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="G10" s="18" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="G10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="G11" s="21" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="G11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
@@ -1038,183 +1056,183 @@
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="G13" s="21" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="G13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="A22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="A23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="4"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
+      <c r="A28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
+      <c r="A29" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="4"/>
       <c r="G29" s="1"/>
     </row>
@@ -1227,51 +1245,10 @@
       <c r="F30" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:C29">
+    <sortCondition ref="A22"/>
+  </sortState>
   <mergeCells count="51">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:E7"/>
@@ -1279,6 +1256,50 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:K8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matri/an.xlsx
+++ b/matri/an.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5C001D-F2B3-49AB-BDDD-7F554909C09D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57277D2B-7207-4491-AF29-786AF5EED28B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -460,6 +460,105 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,109 +571,16 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -941,21 +947,21 @@
   <dimension ref="A6:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+      <selection activeCell="D27" sqref="D27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -964,48 +970,48 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="G8" s="39" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1014,36 +1020,36 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="G10" s="29" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="G10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="G11" s="19" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="G11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
@@ -1056,183 +1062,183 @@
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="G13" s="19" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="G13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="4"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="4"/>
       <c r="G29" s="1"/>
     </row>
@@ -1249,6 +1255,50 @@
     <sortCondition ref="A22"/>
   </sortState>
   <mergeCells count="51">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:E7"/>
@@ -1256,50 +1306,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:K8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matri/an.xlsx
+++ b/matri/an.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57277D2B-7207-4491-AF29-786AF5EED28B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C5EC4C-970F-4AE5-A293-4C09303601F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -460,6 +460,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,97 +583,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,21 +950,21 @@
   <dimension ref="A6:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="39"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -970,48 +973,48 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="G8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1020,225 +1023,225 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="G10" s="18" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="G10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="G11" s="21" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="G11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="G13" s="21" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="G13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="4"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="4"/>
       <c r="G29" s="1"/>
     </row>
@@ -1255,50 +1258,6 @@
     <sortCondition ref="A22"/>
   </sortState>
   <mergeCells count="51">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:E7"/>
@@ -1306,6 +1265,50 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:K8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matri/an.xlsx
+++ b/matri/an.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C5EC4C-970F-4AE5-A293-4C09303601F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF297B02-C59A-4C8D-873D-13B6C2D02AA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,21 +52,12 @@
     <t xml:space="preserve">Yulibert Guaracan </t>
   </si>
   <si>
-    <t xml:space="preserve">PRESIDENTE: YUREGLIS VALENCIA </t>
-  </si>
-  <si>
     <t>PSUV</t>
   </si>
   <si>
-    <t xml:space="preserve">VICE-PRESIDENTE: ORIANA ALVAREZ </t>
-  </si>
-  <si>
     <t xml:space="preserve">Amilcar Sanoja </t>
   </si>
   <si>
-    <t>SECRETARIA: MARIANA LOPEZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Andres Avelino </t>
   </si>
   <si>
@@ -113,6 +104,15 @@
   </si>
   <si>
     <t>José Antonio Mendoza</t>
+  </si>
+  <si>
+    <t>PRESIDENTE: GUSTAVO PUCHI</t>
+  </si>
+  <si>
+    <t>VICE-PRESIDENTE: JUAN LUNAR</t>
+  </si>
+  <si>
+    <t>SECRETARIA: MARIANA LÓPEZ</t>
   </si>
 </sst>
 </file>
@@ -460,6 +460,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,108 +584,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -950,21 +950,21 @@
   <dimension ref="A6:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -973,48 +973,48 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="G8" s="46" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1023,225 +1023,225 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="G10" s="36" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="G10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="G11" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="G11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
+      <c r="G12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="G13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
+      <c r="A13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="G13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="4"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
+      <c r="A29" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="4"/>
       <c r="G29" s="1"/>
     </row>
@@ -1258,6 +1258,50 @@
     <sortCondition ref="A22"/>
   </sortState>
   <mergeCells count="51">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:E7"/>
@@ -1265,50 +1309,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:K8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matri/an.xlsx
+++ b/matri/an.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF297B02-C59A-4C8D-873D-13B6C2D02AA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D4B43-C4DB-42D9-94C0-5C57C3A146F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>DIPUTADOS</t>
   </si>
@@ -130,27 +130,32 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -451,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -460,6 +465,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,100 +591,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -949,22 +960,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="40"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -973,48 +984,48 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="G8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1023,225 +1034,225 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="G10" s="18" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="G10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="G11" s="21" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="G13" s="21" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="G13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="4"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="4"/>
       <c r="G29" s="1"/>
     </row>
@@ -1258,50 +1269,6 @@
     <sortCondition ref="A22"/>
   </sortState>
   <mergeCells count="51">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:E7"/>
@@ -1309,6 +1276,50 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:K8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matri/an.xlsx
+++ b/matri/an.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D4B43-C4DB-42D9-94C0-5C57C3A146F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB66632E-409F-42D9-97E2-B1E9175B4E93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>DIPUTADOS</t>
   </si>
@@ -465,6 +465,114 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,114 +595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -961,21 +961,21 @@
   <dimension ref="A6:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -984,48 +984,48 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="G8" s="47" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1034,225 +1034,225 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="G10" s="37" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="G10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="G11" s="27" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="G11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="G13" s="27" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="G13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="4"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="4"/>
       <c r="G29" s="1"/>
     </row>
@@ -1269,6 +1269,50 @@
     <sortCondition ref="A22"/>
   </sortState>
   <mergeCells count="51">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:E7"/>
@@ -1276,50 +1320,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:K8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
